--- a/Homework/HW4/OS.xlsx
+++ b/Homework/HW4/OS.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>job</t>
   </si>
@@ -43,10 +43,13 @@
     <t>Finish-Start</t>
   </si>
   <si>
-    <t>Seconds</t>
+    <t>F-S in Seconds</t>
   </si>
   <si>
     <t>Average</t>
+  </si>
+  <si>
+    <t>Adriana, Curt, Laura</t>
   </si>
 </sst>
 </file>
@@ -145,21 +148,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:K18"/>
+  <dimension ref="A2:K20"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="K18" activeCellId="0" pane="topLeft" sqref="K18"/>
+      <selection activeCell="B27" activeCellId="0" pane="topLeft" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.56862745098039"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="11.6156862745098"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.56862745098039"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.0470588235294"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="8.56862745098039"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.8156862745098"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.7725490196078"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.56862745098039"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.60392156862745"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="11.6666666666667"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.60392156862745"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.0980392156863"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="8.60392156862745"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.8705882352941"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.6078431372549"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.60392156862745"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="2">
@@ -218,7 +221,7 @@
       </c>
       <c r="J3" s="2" t="n">
         <f aca="false">E3-D3</f>
-        <v>0.0236111111111111</v>
+        <v>0.0236111111111116</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>34</v>
@@ -239,19 +242,19 @@
       </c>
       <c r="F4" s="2" t="n">
         <f aca="false">D4-C4</f>
-        <v>0.0465277777777778</v>
+        <v>0.0465277777777779</v>
       </c>
       <c r="G4" s="2" t="n">
         <f aca="false">E4-C4</f>
-        <v>0.06875</v>
+        <v>0.0687499999999999</v>
       </c>
       <c r="H4" s="2" t="n">
         <f aca="false">D4-C4</f>
-        <v>0.0465277777777778</v>
+        <v>0.0465277777777779</v>
       </c>
       <c r="J4" s="2" t="n">
         <f aca="false">E4-D4</f>
-        <v>0.0222222222222222</v>
+        <v>0.022222222222222</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>32</v>
@@ -272,15 +275,15 @@
       </c>
       <c r="F5" s="2" t="n">
         <f aca="false">D5-C5</f>
-        <v>0.0319444444444444</v>
+        <v>0.031944444444444</v>
       </c>
       <c r="G5" s="2" t="n">
         <f aca="false">E5-C5</f>
-        <v>0.0444444444444444</v>
+        <v>0.044444444444444</v>
       </c>
       <c r="H5" s="2" t="n">
         <f aca="false">D5-C5</f>
-        <v>0.0319444444444444</v>
+        <v>0.031944444444444</v>
       </c>
       <c r="J5" s="2" t="n">
         <f aca="false">E5-D5</f>
@@ -305,19 +308,19 @@
       </c>
       <c r="F6" s="2" t="n">
         <f aca="false">D6-C6</f>
-        <v>0.0229166666666666</v>
+        <v>0.022916666666666</v>
       </c>
       <c r="G6" s="2" t="n">
         <f aca="false">E6-C6</f>
-        <v>0.0277777777777778</v>
+        <v>0.027777777777777</v>
       </c>
       <c r="H6" s="2" t="n">
         <f aca="false">D6-C6</f>
-        <v>0.0229166666666666</v>
+        <v>0.022916666666666</v>
       </c>
       <c r="J6" s="2" t="n">
         <f aca="false">E6-D6</f>
-        <v>0.00486111111111112</v>
+        <v>0.00486111111111101</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>7</v>
@@ -338,19 +341,19 @@
       </c>
       <c r="F7" s="2" t="n">
         <f aca="false">D7-C7</f>
-        <v>0.000694444444444442</v>
+        <v>0.000694444444443998</v>
       </c>
       <c r="G7" s="2" t="n">
         <f aca="false">E7-C7</f>
-        <v>0.0874999999999999</v>
+        <v>0.087499999999999</v>
       </c>
       <c r="H7" s="2" t="n">
         <f aca="false">D7-C7</f>
-        <v>0.000694444444444442</v>
+        <v>0.000694444444443998</v>
       </c>
       <c r="J7" s="2" t="n">
         <f aca="false">E7-D7</f>
-        <v>0.0868055555555555</v>
+        <v>0.086805555555555</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>125</v>
@@ -371,19 +374,19 @@
       </c>
       <c r="F8" s="2" t="n">
         <f aca="false">D8-C8</f>
-        <v>0.000694444444444498</v>
+        <v>0.000694444444443998</v>
       </c>
       <c r="G8" s="2" t="n">
         <f aca="false">E8-C8</f>
-        <v>0.0340277777777778</v>
+        <v>0.034027777777778</v>
       </c>
       <c r="H8" s="2" t="n">
         <f aca="false">D8-C8</f>
-        <v>0.000694444444444498</v>
+        <v>0.000694444444443998</v>
       </c>
       <c r="J8" s="2" t="n">
         <f aca="false">E8-D8</f>
-        <v>0.0333333333333333</v>
+        <v>0.033333333333334</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>48</v>
@@ -404,19 +407,19 @@
       </c>
       <c r="F9" s="2" t="n">
         <f aca="false">D9-C9</f>
-        <v>0.0333333333333333</v>
+        <v>0.033333333333334</v>
       </c>
       <c r="G9" s="2" t="n">
         <f aca="false">E9-C9</f>
-        <v>0.0493055555555556</v>
+        <v>0.049305555555556</v>
       </c>
       <c r="H9" s="2" t="n">
         <f aca="false">D9-C9</f>
-        <v>0.0333333333333333</v>
+        <v>0.033333333333334</v>
       </c>
       <c r="J9" s="2" t="n">
         <f aca="false">E9-D9</f>
-        <v>0.0159722222222223</v>
+        <v>0.015972222222222</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>23</v>
@@ -437,19 +440,19 @@
       </c>
       <c r="F10" s="2" t="n">
         <f aca="false">D10-C10</f>
-        <v>0.000694444444444331</v>
+        <v>0.000694444444443998</v>
       </c>
       <c r="G10" s="2" t="n">
         <f aca="false">E10-C10</f>
-        <v>0.0138888888888887</v>
+        <v>0.0138888888888881</v>
       </c>
       <c r="H10" s="2" t="n">
         <f aca="false">D10-C10</f>
-        <v>0.000694444444444331</v>
+        <v>0.000694444444443998</v>
       </c>
       <c r="J10" s="2" t="n">
         <f aca="false">E10-D10</f>
-        <v>0.0131944444444444</v>
+        <v>0.0131944444444441</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>19</v>
@@ -470,19 +473,19 @@
       </c>
       <c r="F11" s="2" t="n">
         <f aca="false">D11-C11</f>
-        <v>0.00763888888888886</v>
+        <v>0.00763888888888897</v>
       </c>
       <c r="G11" s="2" t="n">
         <f aca="false">E11-C11</f>
-        <v>0.0694444444444444</v>
+        <v>0.069444444444445</v>
       </c>
       <c r="H11" s="2" t="n">
         <f aca="false">D11-C11</f>
-        <v>0.00763888888888886</v>
+        <v>0.00763888888888897</v>
       </c>
       <c r="J11" s="2" t="n">
         <f aca="false">E11-D11</f>
-        <v>0.0618055555555556</v>
+        <v>0.061805555555556</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>89</v>
@@ -503,15 +506,15 @@
       </c>
       <c r="F12" s="2" t="n">
         <f aca="false">D12-C12</f>
-        <v>0.000694444444444442</v>
+        <v>0.000694444444444997</v>
       </c>
       <c r="G12" s="2" t="n">
         <f aca="false">E12-C12</f>
-        <v>0.0194444444444445</v>
+        <v>0.019444444444445</v>
       </c>
       <c r="H12" s="2" t="n">
         <f aca="false">D12-C12</f>
-        <v>0.000694444444444442</v>
+        <v>0.000694444444444997</v>
       </c>
       <c r="J12" s="2" t="n">
         <f aca="false">E12-D12</f>
@@ -540,7 +543,7 @@
       </c>
       <c r="G13" s="2" t="n">
         <f aca="false">E13-C13</f>
-        <v>0.0152777777777777</v>
+        <v>0.0152777777777781</v>
       </c>
       <c r="H13" s="2" t="n">
         <f aca="false">D13-C13</f>
@@ -548,7 +551,7 @@
       </c>
       <c r="J13" s="2" t="n">
         <f aca="false">E13-D13</f>
-        <v>0.0152777777777777</v>
+        <v>0.0152777777777781</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>22</v>
@@ -569,19 +572,19 @@
       </c>
       <c r="F14" s="2" t="n">
         <f aca="false">D14-C14</f>
-        <v>0.00416666666666654</v>
+        <v>0.00416666666666699</v>
       </c>
       <c r="G14" s="2" t="n">
         <f aca="false">E14-C14</f>
-        <v>0.0402777777777777</v>
+        <v>0.0402777777777781</v>
       </c>
       <c r="H14" s="2" t="n">
         <f aca="false">D14-C14</f>
-        <v>0.00416666666666654</v>
+        <v>0.00416666666666699</v>
       </c>
       <c r="J14" s="2" t="n">
         <f aca="false">E14-D14</f>
-        <v>0.0361111111111112</v>
+        <v>0.0361111111111111</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>52</v>
@@ -602,19 +605,19 @@
       </c>
       <c r="F15" s="2" t="n">
         <f aca="false">D15-C15</f>
-        <v>0.000694444444444442</v>
+        <v>0.000694444444444997</v>
       </c>
       <c r="G15" s="2" t="n">
         <f aca="false">E15-C15</f>
-        <v>0.0104166666666665</v>
+        <v>0.010416666666667</v>
       </c>
       <c r="H15" s="2" t="n">
         <f aca="false">D15-C15</f>
-        <v>0.000694444444444442</v>
+        <v>0.000694444444444997</v>
       </c>
       <c r="J15" s="2" t="n">
         <f aca="false">E15-D15</f>
-        <v>0.00972222222222208</v>
+        <v>0.00972222222222197</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>14</v>
@@ -668,19 +671,19 @@
       </c>
       <c r="F17" s="2" t="n">
         <f aca="false">D17-C17</f>
-        <v>0.0847222222222223</v>
+        <v>0.0847222222222229</v>
       </c>
       <c r="G17" s="2" t="n">
         <f aca="false">E17-C17</f>
-        <v>0.0965277777777778</v>
+        <v>0.096527777777778</v>
       </c>
       <c r="H17" s="2" t="n">
         <f aca="false">D17-C17</f>
-        <v>0.0847222222222223</v>
+        <v>0.0847222222222229</v>
       </c>
       <c r="J17" s="2" t="n">
         <f aca="false">E17-D17</f>
-        <v>0.0118055555555555</v>
+        <v>0.0118055555555551</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>17</v>
@@ -707,6 +710,11 @@
         <is>
           <t/>
         </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="20">
+      <c r="A20" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -732,7 +740,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.56862745098039"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.60392156862745"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -757,7 +765,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.56862745098039"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.60392156862745"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
